--- a/www.eia.gov/electricity/monthly/xls/table_6_02_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_02_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
-    <t>Table 6.2.A. Net Summer Capacity of Utility Scale Units by Technology and by State, October 2016 and 2015 (Megawatts)</t>
+    <t>Table 6.2.A. Net Summer Capacity of Utility Scale Units by Technology and by State, November 2016 and 2015 (Megawatts)</t>
   </si>
   <si>
     <t>Census Division
@@ -60,10 +60,10 @@
 </t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>New England</t>
@@ -1309,13 +1309,13 @@
         <v>5089.8</v>
       </c>
       <c r="C4" s="8">
-        <v>4969.3999999999996</v>
+        <v>4973</v>
       </c>
       <c r="D4" s="8">
-        <v>22712.1</v>
+        <v>22730.1</v>
       </c>
       <c r="E4" s="8">
-        <v>22744.9</v>
+        <v>22753.3</v>
       </c>
       <c r="F4" s="8">
         <v>1797.4</v>
@@ -1342,10 +1342,10 @@
         <v>48</v>
       </c>
       <c r="N4" s="8">
-        <v>33667.300000000003</v>
+        <v>33685.300000000003</v>
       </c>
       <c r="O4" s="8">
-        <v>33557.699999999997</v>
+        <v>33569.699999999997</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>6312.7</v>
       </c>
       <c r="E5" s="10">
-        <v>6306.8</v>
+        <v>6309.6</v>
       </c>
       <c r="F5" s="10">
         <v>29.4</v>
@@ -1392,7 +1392,7 @@
         <v>8789.5</v>
       </c>
       <c r="O5" s="10">
-        <v>8781.4</v>
+        <v>8784.2000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
         <v>995.8</v>
       </c>
       <c r="C7" s="10">
-        <v>947.7</v>
+        <v>950.3</v>
       </c>
       <c r="D7" s="10">
         <v>9795</v>
       </c>
       <c r="E7" s="10">
-        <v>9833.7000000000007</v>
+        <v>9839.2999999999993</v>
       </c>
       <c r="F7" s="10">
         <v>1768</v>
@@ -1486,7 +1486,7 @@
         <v>13243.1</v>
       </c>
       <c r="O7" s="10">
-        <v>13211.7</v>
+        <v>13219.9</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1544,10 +1544,10 @@
         <v>69.3</v>
       </c>
       <c r="C9" s="10">
-        <v>56.3</v>
+        <v>57.3</v>
       </c>
       <c r="D9" s="10">
-        <v>1791.3</v>
+        <v>1809.3</v>
       </c>
       <c r="E9" s="10">
         <v>1791.3</v>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="10">
-        <v>1860.6</v>
+        <v>1878.6</v>
       </c>
       <c r="O9" s="10">
-        <v>1847.6</v>
+        <v>1848.6</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1638,13 +1638,13 @@
         <v>10691.9</v>
       </c>
       <c r="C11" s="8">
-        <v>10657.6</v>
+        <v>10644.3</v>
       </c>
       <c r="D11" s="8">
-        <v>69297.3</v>
+        <v>69323.899999999994</v>
       </c>
       <c r="E11" s="8">
-        <v>67425.7</v>
+        <v>68015.600000000006</v>
       </c>
       <c r="F11" s="8">
         <v>3409.1</v>
@@ -1671,10 +1671,10 @@
         <v>11.2</v>
       </c>
       <c r="N11" s="8">
-        <v>102674</v>
+        <v>102700.6</v>
       </c>
       <c r="O11" s="8">
-        <v>100768.1</v>
+        <v>101344.7</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>13584.3</v>
       </c>
       <c r="E12" s="10">
-        <v>12955.5</v>
+        <v>13535.5</v>
       </c>
       <c r="F12" s="10">
         <v>420</v>
@@ -1721,7 +1721,7 @@
         <v>18851</v>
       </c>
       <c r="O12" s="10">
-        <v>18177.2</v>
+        <v>18757.2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>7109.1</v>
       </c>
       <c r="D13" s="10">
-        <v>25956.400000000001</v>
+        <v>25983</v>
       </c>
       <c r="E13" s="10">
-        <v>26300.6</v>
+        <v>26310.5</v>
       </c>
       <c r="F13" s="10">
         <v>1406.1</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="10">
-        <v>39890.199999999997</v>
+        <v>39916.800000000003</v>
       </c>
       <c r="O13" s="10">
-        <v>40233.4</v>
+        <v>40243.300000000003</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>2854.2</v>
       </c>
       <c r="C14" s="10">
-        <v>2865.9</v>
+        <v>2852.6</v>
       </c>
       <c r="D14" s="10">
         <v>29756.6</v>
@@ -1815,7 +1815,7 @@
         <v>43932.800000000003</v>
       </c>
       <c r="O14" s="10">
-        <v>42357.5</v>
+        <v>42344.2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1823,13 +1823,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="8">
-        <v>10235.1</v>
+        <v>10239.700000000001</v>
       </c>
       <c r="C15" s="8">
-        <v>10089.9</v>
+        <v>10049.9</v>
       </c>
       <c r="D15" s="8">
-        <v>113815.9</v>
+        <v>113805.9</v>
       </c>
       <c r="E15" s="8">
         <v>116595.5</v>
@@ -1844,7 +1844,7 @@
         <v>137.6</v>
       </c>
       <c r="I15" s="8">
-        <v>98.6</v>
+        <v>100.6</v>
       </c>
       <c r="J15" s="8">
         <v>18896.099999999999</v>
@@ -1859,10 +1859,10 @@
         <v>110.1</v>
       </c>
       <c r="N15" s="8">
-        <v>145231.79999999999</v>
+        <v>145226.4</v>
       </c>
       <c r="O15" s="8">
-        <v>147754.20000000001</v>
+        <v>147716.20000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>2179.6999999999998</v>
       </c>
       <c r="C17" s="10">
-        <v>1982.5</v>
+        <v>1992.5</v>
       </c>
       <c r="D17" s="10">
         <v>23353.9</v>
@@ -1956,7 +1956,7 @@
         <v>25642.6</v>
       </c>
       <c r="O17" s="10">
-        <v>26334.9</v>
+        <v>26344.9</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="10">
-        <v>2253.1</v>
+        <v>2257.6999999999998</v>
       </c>
       <c r="C18" s="10">
         <v>2253.5</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="10">
-        <v>29141.3</v>
+        <v>29145.9</v>
       </c>
       <c r="O18" s="10">
         <v>30065.200000000001</v>
@@ -2032,7 +2032,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J19" s="10">
         <v>2134</v>
@@ -2050,7 +2050,7 @@
         <v>28694.6</v>
       </c>
       <c r="O19" s="10">
-        <v>28740.6</v>
+        <v>28742.6</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2061,10 +2061,10 @@
         <v>1109.7</v>
       </c>
       <c r="C20" s="10">
-        <v>1150.5</v>
+        <v>1100.5</v>
       </c>
       <c r="D20" s="10">
-        <v>14350.1</v>
+        <v>14340.1</v>
       </c>
       <c r="E20" s="10">
         <v>14607.7</v>
@@ -2094,10 +2094,10 @@
         <v>21.1</v>
       </c>
       <c r="N20" s="10">
-        <v>16676.900000000001</v>
+        <v>16666.900000000001</v>
       </c>
       <c r="O20" s="10">
-        <v>16975.3</v>
+        <v>16925.3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2105,16 +2105,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="8">
-        <v>21850.6</v>
+        <v>22028.2</v>
       </c>
       <c r="C21" s="8">
-        <v>20409.599999999999</v>
+        <v>20527.3</v>
       </c>
       <c r="D21" s="8">
         <v>60621.4</v>
       </c>
       <c r="E21" s="8">
-        <v>61615.9</v>
+        <v>61263.3</v>
       </c>
       <c r="F21" s="8">
         <v>657</v>
@@ -2141,10 +2141,10 @@
         <v>24.5</v>
       </c>
       <c r="N21" s="8">
-        <v>88532.9</v>
+        <v>88710.5</v>
       </c>
       <c r="O21" s="8">
-        <v>88564.5</v>
+        <v>88329.600000000006</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2152,10 +2152,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="10">
-        <v>6439.7</v>
+        <v>6467.3</v>
       </c>
       <c r="C22" s="10">
-        <v>6121.2</v>
+        <v>6238.9</v>
       </c>
       <c r="D22" s="10">
         <v>9567.2000000000007</v>
@@ -2188,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="10">
-        <v>16608.3</v>
+        <v>16635.900000000001</v>
       </c>
       <c r="O22" s="10">
-        <v>16672.7</v>
+        <v>16790.400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>9716.7999999999993</v>
       </c>
       <c r="E23" s="10">
-        <v>9934.6</v>
+        <v>9583.1</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>14756.3</v>
       </c>
       <c r="O23" s="10">
-        <v>14302</v>
+        <v>13950.5</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>10132.6</v>
       </c>
       <c r="E24" s="10">
-        <v>10241.700000000001</v>
+        <v>10240.6</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>15915</v>
       </c>
       <c r="O24" s="10">
-        <v>15821.8</v>
+        <v>15820.7</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="10">
-        <v>2741.5</v>
+        <v>2891.5</v>
       </c>
       <c r="C27" s="10">
         <v>2634</v>
@@ -2423,7 +2423,7 @@
         <v>5.3</v>
       </c>
       <c r="N27" s="10">
-        <v>7362.3</v>
+        <v>7512.3</v>
       </c>
       <c r="O27" s="10">
         <v>7254.8</v>
@@ -2481,16 +2481,16 @@
         <v>37</v>
       </c>
       <c r="B29" s="8">
-        <v>14976.2</v>
+        <v>14993</v>
       </c>
       <c r="C29" s="8">
-        <v>13278.2</v>
+        <v>13403.7</v>
       </c>
       <c r="D29" s="8">
         <v>159760.1</v>
       </c>
       <c r="E29" s="8">
-        <v>159339.9</v>
+        <v>158279.9</v>
       </c>
       <c r="F29" s="8">
         <v>7905.2</v>
@@ -2517,10 +2517,10 @@
         <v>509.7</v>
       </c>
       <c r="N29" s="8">
-        <v>207806.3</v>
+        <v>207823.1</v>
       </c>
       <c r="O29" s="8">
-        <v>205677.1</v>
+        <v>204742.6</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>54112.4</v>
       </c>
       <c r="E32" s="10">
-        <v>53477.599999999999</v>
+        <v>53374.6</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>59477</v>
       </c>
       <c r="O32" s="10">
-        <v>58822.2</v>
+        <v>58719.199999999997</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>3626.2</v>
       </c>
       <c r="C33" s="10">
-        <v>3014.5</v>
+        <v>3034.5</v>
       </c>
       <c r="D33" s="10">
         <v>26956.9</v>
@@ -2708,7 +2708,7 @@
         <v>36506.300000000003</v>
       </c>
       <c r="O33" s="10">
-        <v>36128.6</v>
+        <v>36148.6</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>1009</v>
       </c>
       <c r="C34" s="10">
-        <v>972.4</v>
+        <v>1002.4</v>
       </c>
       <c r="D34" s="10">
         <v>9556.7000000000007</v>
@@ -2755,7 +2755,7 @@
         <v>12284.5</v>
       </c>
       <c r="O34" s="10">
-        <v>12361.9</v>
+        <v>12391.9</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2763,10 +2763,10 @@
         <v>43</v>
       </c>
       <c r="B35" s="10">
-        <v>4280.2</v>
+        <v>4295.2</v>
       </c>
       <c r="C35" s="10">
-        <v>3379.1</v>
+        <v>3454.6</v>
       </c>
       <c r="D35" s="10">
         <v>22021.3</v>
@@ -2799,10 +2799,10 @@
         <v>161</v>
       </c>
       <c r="N35" s="10">
-        <v>31662.1</v>
+        <v>31677.1</v>
       </c>
       <c r="O35" s="10">
-        <v>30761</v>
+        <v>30836.5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>11633</v>
       </c>
       <c r="E36" s="10">
-        <v>11687.2</v>
+        <v>11635.2</v>
       </c>
       <c r="F36" s="10">
         <v>2716</v>
@@ -2849,7 +2849,7 @@
         <v>22695.599999999999</v>
       </c>
       <c r="O36" s="10">
-        <v>22749.8</v>
+        <v>22697.8</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="10">
-        <v>1839.6</v>
+        <v>1841.4</v>
       </c>
       <c r="C37" s="10">
         <v>1755</v>
@@ -2866,7 +2866,7 @@
         <v>17948.5</v>
       </c>
       <c r="E37" s="10">
-        <v>17170.8</v>
+        <v>16845.8</v>
       </c>
       <c r="F37" s="10">
         <v>3241</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="N37" s="10">
-        <v>26597.1</v>
+        <v>26598.9</v>
       </c>
       <c r="O37" s="10">
-        <v>25734.799999999999</v>
+        <v>25409.8</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>14163.3</v>
       </c>
       <c r="E38" s="10">
-        <v>14743.3</v>
+        <v>14163.3</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>15158.8</v>
       </c>
       <c r="O38" s="10">
-        <v>15694.8</v>
+        <v>15114.8</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2954,13 +2954,13 @@
         <v>8288.6</v>
       </c>
       <c r="C39" s="8">
-        <v>8009.4</v>
+        <v>8011.4</v>
       </c>
       <c r="D39" s="8">
         <v>65848.3</v>
       </c>
       <c r="E39" s="8">
-        <v>68056.3</v>
+        <v>68051.3</v>
       </c>
       <c r="F39" s="8">
         <v>1616.3</v>
@@ -2990,7 +2990,7 @@
         <v>86744.7</v>
       </c>
       <c r="O39" s="8">
-        <v>87551.5</v>
+        <v>87548.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3048,13 +3048,13 @@
         <v>1109.9000000000001</v>
       </c>
       <c r="C41" s="10">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D41" s="10">
         <v>19004.5</v>
       </c>
       <c r="E41" s="10">
-        <v>19158.5</v>
+        <v>19153.5</v>
       </c>
       <c r="F41" s="10">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>20114.400000000001</v>
       </c>
       <c r="O41" s="10">
-        <v>20062.5</v>
+        <v>20059.5</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3186,10 +3186,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="8">
-        <v>29207.7</v>
+        <v>29828.1</v>
       </c>
       <c r="C44" s="8">
-        <v>25555.5</v>
+        <v>25855.5</v>
       </c>
       <c r="D44" s="8">
         <v>145608</v>
@@ -3222,10 +3222,10 @@
         <v>512.20000000000005</v>
       </c>
       <c r="N44" s="8">
-        <v>184566.1</v>
+        <v>185186.5</v>
       </c>
       <c r="O44" s="8">
-        <v>181222.39999999999</v>
+        <v>181522.4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>6389.5</v>
       </c>
       <c r="C47" s="10">
-        <v>5268.7</v>
+        <v>5368.7</v>
       </c>
       <c r="D47" s="10">
         <v>18218.2</v>
@@ -3366,7 +3366,7 @@
         <v>24865.7</v>
       </c>
       <c r="O47" s="10">
-        <v>24261.1</v>
+        <v>24361.1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3374,10 +3374,10 @@
         <v>56</v>
       </c>
       <c r="B48" s="10">
-        <v>20540.5</v>
+        <v>21160.9</v>
       </c>
       <c r="C48" s="10">
-        <v>18021.099999999999</v>
+        <v>18221.099999999999</v>
       </c>
       <c r="D48" s="10">
         <v>92908.4</v>
@@ -3410,10 +3410,10 @@
         <v>236.3</v>
       </c>
       <c r="N48" s="10">
-        <v>118686.2</v>
+        <v>119306.6</v>
       </c>
       <c r="O48" s="10">
-        <v>116031.3</v>
+        <v>116231.3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3421,10 +3421,10 @@
         <v>57</v>
       </c>
       <c r="B49" s="8">
-        <v>23657.8</v>
+        <v>23818.6</v>
       </c>
       <c r="C49" s="8">
-        <v>21344.2</v>
+        <v>21645.599999999999</v>
       </c>
       <c r="D49" s="8">
         <v>64087.8</v>
@@ -3457,10 +3457,10 @@
         <v>111.4</v>
       </c>
       <c r="N49" s="8">
-        <v>92583.8</v>
+        <v>92744.6</v>
       </c>
       <c r="O49" s="8">
-        <v>90262.2</v>
+        <v>90563.6</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="10">
-        <v>4602.6000000000004</v>
+        <v>4652.6000000000004</v>
       </c>
       <c r="C50" s="10">
         <v>4496.3999999999996</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="10">
-        <v>28138.3</v>
+        <v>28188.3</v>
       </c>
       <c r="O50" s="10">
         <v>28031.7</v>
@@ -3515,10 +3515,10 @@
         <v>59</v>
       </c>
       <c r="B51" s="10">
-        <v>4035.1</v>
+        <v>4095.9</v>
       </c>
       <c r="C51" s="10">
-        <v>3673</v>
+        <v>3823</v>
       </c>
       <c r="D51" s="10">
         <v>11363</v>
@@ -3551,10 +3551,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N51" s="10">
-        <v>15969.9</v>
+        <v>16030.7</v>
       </c>
       <c r="O51" s="10">
-        <v>15667.8</v>
+        <v>15817.8</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>2887.5</v>
       </c>
       <c r="C54" s="10">
-        <v>2403</v>
+        <v>2554.4</v>
       </c>
       <c r="D54" s="10">
         <v>8258.7000000000007</v>
@@ -3695,7 +3695,7 @@
         <v>11146.2</v>
       </c>
       <c r="O54" s="10">
-        <v>10661.7</v>
+        <v>10813.1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="10">
-        <v>1428.6</v>
+        <v>1478.6</v>
       </c>
       <c r="C56" s="10">
         <v>692.4</v>
@@ -3786,7 +3786,7 @@
         <v>31.8</v>
       </c>
       <c r="N56" s="10">
-        <v>8931.2000000000007</v>
+        <v>8981.2000000000007</v>
       </c>
       <c r="O56" s="10">
         <v>8186.6</v>
@@ -3844,16 +3844,16 @@
         <v>66</v>
       </c>
       <c r="B58" s="8">
-        <v>64844.5</v>
+        <v>65092.3</v>
       </c>
       <c r="C58" s="8">
-        <v>62808.3</v>
+        <v>62627.8</v>
       </c>
       <c r="D58" s="8">
-        <v>52205.4</v>
+        <v>52496.4</v>
       </c>
       <c r="E58" s="8">
-        <v>51986.7</v>
+        <v>51992.9</v>
       </c>
       <c r="F58" s="8">
         <v>4183.3</v>
@@ -3880,10 +3880,10 @@
         <v>106.3</v>
       </c>
       <c r="N58" s="8">
-        <v>124793</v>
+        <v>125331.8</v>
       </c>
       <c r="O58" s="8">
-        <v>122496.6</v>
+        <v>122322.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -3891,16 +3891,16 @@
         <v>67</v>
       </c>
       <c r="B59" s="10">
-        <v>28015.9</v>
+        <v>28203.200000000001</v>
       </c>
       <c r="C59" s="10">
-        <v>26036.3</v>
+        <v>25860.3</v>
       </c>
       <c r="D59" s="10">
-        <v>43017.9</v>
+        <v>43308.9</v>
       </c>
       <c r="E59" s="10">
-        <v>43319.199999999997</v>
+        <v>43325.4</v>
       </c>
       <c r="F59" s="10">
         <v>3869.3</v>
@@ -3927,10 +3927,10 @@
         <v>106.3</v>
       </c>
       <c r="N59" s="10">
-        <v>77295.899999999994</v>
+        <v>77774.2</v>
       </c>
       <c r="O59" s="10">
-        <v>75579.100000000006</v>
+        <v>75409.3</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3938,10 +3938,10 @@
         <v>68</v>
       </c>
       <c r="B60" s="10">
-        <v>12077.5</v>
+        <v>12102</v>
       </c>
       <c r="C60" s="10">
-        <v>12050.2</v>
+        <v>12045.7</v>
       </c>
       <c r="D60" s="10">
         <v>4372.8</v>
@@ -3974,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="10">
-        <v>16455.3</v>
+        <v>16479.8</v>
       </c>
       <c r="O60" s="10">
-        <v>15915</v>
+        <v>15910.5</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="10">
-        <v>24751.1</v>
+        <v>24787.1</v>
       </c>
       <c r="C61" s="10">
         <v>24721.8</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="10">
-        <v>31041.8</v>
+        <v>31077.8</v>
       </c>
       <c r="O61" s="10">
         <v>31002.5</v>
@@ -4038,7 +4038,7 @@
         <v>1071.5999999999999</v>
       </c>
       <c r="D62" s="8">
-        <v>4159.3999999999996</v>
+        <v>4182.2</v>
       </c>
       <c r="E62" s="8">
         <v>4125.3999999999996</v>
@@ -4068,7 +4068,7 @@
         <v>26.6</v>
       </c>
       <c r="N62" s="8">
-        <v>5333.8</v>
+        <v>5356.6</v>
       </c>
       <c r="O62" s="8">
         <v>5277.6</v>
@@ -4085,7 +4085,7 @@
         <v>508.7</v>
       </c>
       <c r="D63" s="10">
-        <v>2102.1999999999998</v>
+        <v>2125</v>
       </c>
       <c r="E63" s="10">
         <v>2053.1999999999998</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="10">
-        <v>2644.4</v>
+        <v>2667.2</v>
       </c>
       <c r="O63" s="10">
         <v>2588.9</v>
@@ -4173,16 +4173,16 @@
         <v>73</v>
       </c>
       <c r="B65" s="8">
-        <v>189936</v>
+        <v>191164</v>
       </c>
       <c r="C65" s="8">
-        <v>178193.7</v>
+        <v>178810.1</v>
       </c>
       <c r="D65" s="8">
-        <v>758115.7</v>
+        <v>758464.1</v>
       </c>
       <c r="E65" s="8">
-        <v>761911</v>
+        <v>761097.9</v>
       </c>
       <c r="F65" s="8">
         <v>22670.1</v>
@@ -4194,7 +4194,7 @@
         <v>411.2</v>
       </c>
       <c r="I65" s="8">
-        <v>318.7</v>
+        <v>320.7</v>
       </c>
       <c r="J65" s="8">
         <v>99315.9</v>
@@ -4209,10 +4209,10 @@
         <v>1461.4</v>
       </c>
       <c r="N65" s="8">
-        <v>1071933.7</v>
+        <v>1073510.1000000001</v>
       </c>
       <c r="O65" s="8">
-        <v>1063131.8999999999</v>
+        <v>1062937.2</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
